--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220520_110505.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220520_110505.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="258">
   <si>
     <t>사이트</t>
   </si>
@@ -712,7 +712,7 @@
     <t>SONY MUSIC</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>꿈의엔진</t>
@@ -788,9 +788,6 @@
   </si>
   <si>
     <t>플렉스엠</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1226,7 @@
         <v>222</v>
       </c>
       <c r="H3" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1255,7 +1252,7 @@
         <v>223</v>
       </c>
       <c r="H4" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1333,7 +1330,7 @@
         <v>226</v>
       </c>
       <c r="H7" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1359,7 +1356,7 @@
         <v>227</v>
       </c>
       <c r="H8" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1385,7 +1382,7 @@
         <v>228</v>
       </c>
       <c r="H9" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1411,7 +1408,7 @@
         <v>229</v>
       </c>
       <c r="H10" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1437,7 +1434,7 @@
         <v>226</v>
       </c>
       <c r="H11" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1515,7 +1512,7 @@
         <v>230</v>
       </c>
       <c r="H14" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1541,7 +1538,7 @@
         <v>231</v>
       </c>
       <c r="H15" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1567,7 +1564,7 @@
         <v>223</v>
       </c>
       <c r="H16" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1593,7 +1590,7 @@
         <v>232</v>
       </c>
       <c r="H17" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1619,7 +1616,7 @@
         <v>233</v>
       </c>
       <c r="H18" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1645,7 +1642,7 @@
         <v>234</v>
       </c>
       <c r="H19" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1671,7 +1668,7 @@
         <v>235</v>
       </c>
       <c r="H20" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1697,7 +1694,7 @@
         <v>236</v>
       </c>
       <c r="H21" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1723,7 +1720,7 @@
         <v>237</v>
       </c>
       <c r="H22" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1749,7 +1746,7 @@
         <v>238</v>
       </c>
       <c r="H23" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1775,7 +1772,7 @@
         <v>223</v>
       </c>
       <c r="H24" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1801,7 +1798,7 @@
         <v>239</v>
       </c>
       <c r="H25" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1853,7 +1850,7 @@
         <v>239</v>
       </c>
       <c r="H27" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1879,7 +1876,7 @@
         <v>222</v>
       </c>
       <c r="H28" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1905,7 +1902,7 @@
         <v>236</v>
       </c>
       <c r="H29" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1983,7 +1980,7 @@
         <v>230</v>
       </c>
       <c r="H32" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2009,7 +2006,7 @@
         <v>241</v>
       </c>
       <c r="H33" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2035,7 +2032,7 @@
         <v>239</v>
       </c>
       <c r="H34" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2113,7 +2110,7 @@
         <v>230</v>
       </c>
       <c r="H37" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2139,7 +2136,7 @@
         <v>233</v>
       </c>
       <c r="H38" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2165,7 +2162,7 @@
         <v>226</v>
       </c>
       <c r="H39" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2191,7 +2188,7 @@
         <v>242</v>
       </c>
       <c r="H40" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2243,7 +2240,7 @@
         <v>228</v>
       </c>
       <c r="H42" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2295,7 +2292,7 @@
         <v>244</v>
       </c>
       <c r="H44" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2321,7 +2318,7 @@
         <v>230</v>
       </c>
       <c r="H45" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2347,7 +2344,7 @@
         <v>245</v>
       </c>
       <c r="H46" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2373,7 +2370,7 @@
         <v>246</v>
       </c>
       <c r="H47" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2399,7 +2396,7 @@
         <v>235</v>
       </c>
       <c r="H48" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2425,7 +2422,7 @@
         <v>247</v>
       </c>
       <c r="H49" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2451,7 +2448,7 @@
         <v>230</v>
       </c>
       <c r="H50" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2477,7 +2474,7 @@
         <v>248</v>
       </c>
       <c r="H51" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2503,7 +2500,7 @@
         <v>249</v>
       </c>
       <c r="H52" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2555,7 +2552,7 @@
         <v>223</v>
       </c>
       <c r="H54" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2633,7 +2630,7 @@
         <v>236</v>
       </c>
       <c r="H57" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2659,7 +2656,7 @@
         <v>232</v>
       </c>
       <c r="H58" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2685,7 +2682,7 @@
         <v>239</v>
       </c>
       <c r="H59" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2711,7 +2708,7 @@
         <v>239</v>
       </c>
       <c r="H60" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2737,7 +2734,7 @@
         <v>232</v>
       </c>
       <c r="H61" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2763,7 +2760,7 @@
         <v>239</v>
       </c>
       <c r="H62" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2789,7 +2786,7 @@
         <v>250</v>
       </c>
       <c r="H63" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2815,7 +2812,7 @@
         <v>222</v>
       </c>
       <c r="H64" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2867,7 +2864,7 @@
         <v>230</v>
       </c>
       <c r="H66" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2893,7 +2890,7 @@
         <v>239</v>
       </c>
       <c r="H67" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2945,7 +2942,7 @@
         <v>232</v>
       </c>
       <c r="H69" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2971,7 +2968,7 @@
         <v>226</v>
       </c>
       <c r="H70" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2997,7 +2994,7 @@
         <v>235</v>
       </c>
       <c r="H71" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3023,7 +3020,7 @@
         <v>230</v>
       </c>
       <c r="H72" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3049,7 +3046,7 @@
         <v>251</v>
       </c>
       <c r="H73" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3075,7 +3072,7 @@
         <v>242</v>
       </c>
       <c r="H74" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3101,7 +3098,7 @@
         <v>236</v>
       </c>
       <c r="H75" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3127,7 +3124,7 @@
         <v>252</v>
       </c>
       <c r="H76" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3179,7 +3176,7 @@
         <v>242</v>
       </c>
       <c r="H78" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3231,7 +3228,7 @@
         <v>253</v>
       </c>
       <c r="H80" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3283,7 +3280,7 @@
         <v>232</v>
       </c>
       <c r="H82" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3309,7 +3306,7 @@
         <v>223</v>
       </c>
       <c r="H83" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3335,7 +3332,7 @@
         <v>230</v>
       </c>
       <c r="H84" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3361,7 +3358,7 @@
         <v>247</v>
       </c>
       <c r="H85" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3387,7 +3384,7 @@
         <v>232</v>
       </c>
       <c r="H86" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3413,7 +3410,7 @@
         <v>232</v>
       </c>
       <c r="H87" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3439,7 +3436,7 @@
         <v>251</v>
       </c>
       <c r="H88" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3491,7 +3488,7 @@
         <v>255</v>
       </c>
       <c r="H90" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3517,7 +3514,7 @@
         <v>239</v>
       </c>
       <c r="H91" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3543,7 +3540,7 @@
         <v>223</v>
       </c>
       <c r="H92" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3569,7 +3566,7 @@
         <v>230</v>
       </c>
       <c r="H93" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3595,7 +3592,7 @@
         <v>246</v>
       </c>
       <c r="H94" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3673,7 +3670,7 @@
         <v>256</v>
       </c>
       <c r="H97" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3699,7 +3696,7 @@
         <v>257</v>
       </c>
       <c r="H98" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3725,7 +3722,7 @@
         <v>226</v>
       </c>
       <c r="H99" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3751,7 +3748,7 @@
         <v>252</v>
       </c>
       <c r="H100" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:8">
